--- a/Code/Results/Cases/Case_4_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.7035953056861</v>
+        <v>12.40453383752919</v>
       </c>
       <c r="C2">
-        <v>7.220118340602588</v>
+        <v>8.440546529063088</v>
       </c>
       <c r="D2">
-        <v>9.328127168419496</v>
+        <v>14.0160008166415</v>
       </c>
       <c r="E2">
-        <v>8.831005335518501</v>
+        <v>14.7726355906313</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>28.6386025076114</v>
+        <v>42.35544593076597</v>
       </c>
       <c r="H2">
-        <v>10.86512095150561</v>
+        <v>17.85648791140229</v>
       </c>
       <c r="I2">
-        <v>17.98815890355679</v>
+        <v>28.75904256296874</v>
       </c>
       <c r="J2">
-        <v>5.343241779570073</v>
+        <v>8.88824659559746</v>
       </c>
       <c r="K2">
-        <v>10.76430347947527</v>
+        <v>9.523861557817211</v>
       </c>
       <c r="L2">
-        <v>7.258130266813982</v>
+        <v>12.11450060032691</v>
       </c>
       <c r="M2">
-        <v>10.04329833283151</v>
+        <v>15.48203246089518</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.26726268976041</v>
+        <v>28.95271429876113</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.85734083701615</v>
+        <v>12.19519397302061</v>
       </c>
       <c r="C3">
-        <v>7.133099294316391</v>
+        <v>8.413745393550723</v>
       </c>
       <c r="D3">
-        <v>9.159882778994515</v>
+        <v>14.02069832662878</v>
       </c>
       <c r="E3">
-        <v>8.850333493185571</v>
+        <v>14.80312046728939</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>28.67111704714399</v>
+        <v>42.49481110824836</v>
       </c>
       <c r="H3">
-        <v>10.95801723533503</v>
+        <v>17.90885063336371</v>
       </c>
       <c r="I3">
-        <v>18.18630135452369</v>
+        <v>28.85983927469492</v>
       </c>
       <c r="J3">
-        <v>5.362904913902638</v>
+        <v>8.895390369357141</v>
       </c>
       <c r="K3">
-        <v>10.1766325460453</v>
+        <v>9.36666126740276</v>
       </c>
       <c r="L3">
-        <v>7.188076103788187</v>
+        <v>12.12484038866509</v>
       </c>
       <c r="M3">
-        <v>9.732892201505694</v>
+        <v>15.45352418494169</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.38642186660448</v>
+        <v>29.0458321197443</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.30652570088513</v>
+        <v>12.06653563793971</v>
       </c>
       <c r="C4">
-        <v>7.079340298056483</v>
+        <v>8.39719269210102</v>
       </c>
       <c r="D4">
-        <v>9.059867145195133</v>
+        <v>14.0259115380325</v>
       </c>
       <c r="E4">
-        <v>8.865659695844759</v>
+        <v>14.82348445052418</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>28.71541596857464</v>
+        <v>42.58955865326764</v>
       </c>
       <c r="H4">
-        <v>11.02010164539009</v>
+        <v>17.94329354353553</v>
       </c>
       <c r="I4">
-        <v>18.31758026774114</v>
+        <v>28.92599147449038</v>
       </c>
       <c r="J4">
-        <v>5.375395642052851</v>
+        <v>8.900012537860388</v>
       </c>
       <c r="K4">
-        <v>9.797513878760455</v>
+        <v>9.269902490460321</v>
       </c>
       <c r="L4">
-        <v>7.147340790138217</v>
+        <v>12.13253603460777</v>
       </c>
       <c r="M4">
-        <v>9.540211054593023</v>
+        <v>15.43778123833013</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.47092518702907</v>
+        <v>29.10768577326957</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.07417776892476</v>
+        <v>12.01414013588727</v>
       </c>
       <c r="C5">
-        <v>7.057359929964231</v>
+        <v>8.390424796961643</v>
       </c>
       <c r="D5">
-        <v>9.019975256084788</v>
+        <v>14.0286227085006</v>
       </c>
       <c r="E5">
-        <v>8.872759812550926</v>
+        <v>14.83219742720272</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>28.73936583725079</v>
+        <v>42.63047237691628</v>
       </c>
       <c r="H5">
-        <v>11.04664007944544</v>
+        <v>17.95790621432549</v>
       </c>
       <c r="I5">
-        <v>18.37343128899322</v>
+        <v>28.954021604072</v>
       </c>
       <c r="J5">
-        <v>5.380591956231561</v>
+        <v>8.901955587558856</v>
       </c>
       <c r="K5">
-        <v>9.638487471505904</v>
+        <v>9.23045947165679</v>
       </c>
       <c r="L5">
-        <v>7.131320017475858</v>
+        <v>12.13601147115306</v>
       </c>
       <c r="M5">
-        <v>9.461277496591661</v>
+        <v>15.43181320103583</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.50811931811864</v>
+        <v>29.13406806152121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.0351191708007</v>
+        <v>12.00544385223971</v>
       </c>
       <c r="C6">
-        <v>7.053705973467618</v>
+        <v>8.389299683735448</v>
       </c>
       <c r="D6">
-        <v>9.01340459281799</v>
+        <v>14.02910836298021</v>
       </c>
       <c r="E6">
-        <v>8.873989954444808</v>
+        <v>14.83366926046104</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>28.74369239755428</v>
+        <v>42.63740505739737</v>
       </c>
       <c r="H6">
-        <v>11.05112071972192</v>
+        <v>17.96036749760528</v>
       </c>
       <c r="I6">
-        <v>18.38284565941374</v>
+        <v>28.9587407874501</v>
       </c>
       <c r="J6">
-        <v>5.38146125322104</v>
+        <v>8.902281826810642</v>
       </c>
       <c r="K6">
-        <v>9.611809770824006</v>
+        <v>9.223910575958865</v>
       </c>
       <c r="L6">
-        <v>7.128694927097544</v>
+        <v>12.13660908294047</v>
       </c>
       <c r="M6">
-        <v>9.448149010206386</v>
+        <v>15.43084935661922</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.5144593199198</v>
+        <v>29.13851986942223</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.30342415636719</v>
+        <v>12.06582879085362</v>
       </c>
       <c r="C7">
-        <v>7.079044146448839</v>
+        <v>8.397101506804397</v>
       </c>
       <c r="D7">
-        <v>9.05932559593213</v>
+        <v>14.025945724782</v>
       </c>
       <c r="E7">
-        <v>8.865752010310036</v>
+        <v>14.82360027779582</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>28.71571537900254</v>
+        <v>42.5901011097087</v>
       </c>
       <c r="H7">
-        <v>11.0204545758774</v>
+        <v>17.9434882785027</v>
       </c>
       <c r="I7">
-        <v>18.31832404616405</v>
+        <v>28.9263651548753</v>
       </c>
       <c r="J7">
-        <v>5.3754652895483</v>
+        <v>8.900038501456573</v>
       </c>
       <c r="K7">
-        <v>9.795387445381278</v>
+        <v>9.269370538825882</v>
       </c>
       <c r="L7">
-        <v>7.147122375634642</v>
+        <v>12.13258153046434</v>
       </c>
       <c r="M7">
-        <v>9.539148054352681</v>
+        <v>15.4376989343203</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.47141575195616</v>
+        <v>29.10803681092997</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.41826151447123</v>
+        <v>12.33241745701951</v>
       </c>
       <c r="C8">
-        <v>7.190188099287206</v>
+        <v>8.431326635872583</v>
       </c>
       <c r="D8">
-        <v>9.269458023329724</v>
+        <v>14.01713787772174</v>
       </c>
       <c r="E8">
-        <v>8.836942703868441</v>
+        <v>14.78280545216714</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>28.64463016176841</v>
+        <v>42.40159191335152</v>
       </c>
       <c r="H8">
-        <v>10.89608559944036</v>
+        <v>17.87406721698645</v>
       </c>
       <c r="I8">
-        <v>18.05444164470461</v>
+        <v>28.79291298648094</v>
       </c>
       <c r="J8">
-        <v>5.349935751234254</v>
+        <v>8.890660917414998</v>
       </c>
       <c r="K8">
-        <v>10.56550418644002</v>
+        <v>9.469735856151932</v>
       </c>
       <c r="L8">
-        <v>7.233506826018006</v>
+        <v>12.11778662033461</v>
       </c>
       <c r="M8">
-        <v>9.936768483211194</v>
+        <v>15.4718400074741</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.30593835644686</v>
+        <v>28.98385013515412</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.35857132161294</v>
+        <v>12.85143735936938</v>
       </c>
       <c r="C9">
-        <v>7.405131214808941</v>
+        <v>8.497597601187881</v>
       </c>
       <c r="D9">
-        <v>9.70584282144581</v>
+        <v>14.01828861053364</v>
       </c>
       <c r="E9">
-        <v>8.808575283197516</v>
+        <v>14.71584379888772</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.70809020098413</v>
+        <v>42.1049223231423</v>
       </c>
       <c r="H9">
-        <v>10.69368475985924</v>
+        <v>17.75609311098123</v>
       </c>
       <c r="I9">
-        <v>17.61643747404801</v>
+        <v>28.56500372078056</v>
       </c>
       <c r="J9">
-        <v>5.303125589517556</v>
+        <v>8.87413524145852</v>
       </c>
       <c r="K9">
-        <v>11.92852403627476</v>
+        <v>9.858764941896842</v>
       </c>
       <c r="L9">
-        <v>7.420666465108929</v>
+        <v>12.09943030964053</v>
       </c>
       <c r="M9">
-        <v>10.6954463453474</v>
+        <v>15.55256038142518</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.07574818810551</v>
+        <v>28.77745128040015</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.63673613968359</v>
+        <v>13.22685030010545</v>
       </c>
       <c r="C10">
-        <v>7.560716673442782</v>
+        <v>8.545670180234589</v>
       </c>
       <c r="D10">
-        <v>10.03888752447552</v>
+        <v>14.03027961435449</v>
       </c>
       <c r="E10">
-        <v>8.805831392196632</v>
+        <v>14.67456118750162</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.89145847133123</v>
+        <v>41.93169940510114</v>
       </c>
       <c r="H10">
-        <v>10.57241974287601</v>
+        <v>17.68045338254636</v>
       </c>
       <c r="I10">
-        <v>17.3478032604552</v>
+        <v>28.41811377652819</v>
       </c>
       <c r="J10">
-        <v>5.270631381029581</v>
+        <v>8.863119175582151</v>
       </c>
       <c r="K10">
-        <v>12.83836580539977</v>
+        <v>10.13961085565686</v>
       </c>
       <c r="L10">
-        <v>7.568534022462919</v>
+        <v>12.09239725203823</v>
       </c>
       <c r="M10">
-        <v>11.23465891909811</v>
+        <v>15.61997260332394</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.97033793858158</v>
+        <v>28.6484529772109</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.18676377979802</v>
+        <v>13.39562585210626</v>
       </c>
       <c r="C11">
-        <v>7.63089486649905</v>
+        <v>8.567383836233315</v>
       </c>
       <c r="D11">
-        <v>10.19259937885204</v>
+        <v>14.0381322596869</v>
       </c>
       <c r="E11">
-        <v>8.808719803662218</v>
+        <v>14.65749188895356</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.00725830385801</v>
+        <v>41.862657711405</v>
       </c>
       <c r="H11">
-        <v>10.5237247082024</v>
+        <v>17.64843192076152</v>
       </c>
       <c r="I11">
-        <v>17.2382874073208</v>
+        <v>28.35574412302843</v>
       </c>
       <c r="J11">
-        <v>5.256241372324364</v>
+        <v>8.858349738214022</v>
       </c>
       <c r="K11">
-        <v>13.23221954702658</v>
+        <v>10.26577227310452</v>
       </c>
       <c r="L11">
-        <v>7.637943551099719</v>
+        <v>12.09058893905736</v>
       </c>
       <c r="M11">
-        <v>11.47506207627444</v>
+        <v>15.6523343006414</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.93763284649778</v>
+        <v>28.59468646637175</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.39057338212912</v>
+        <v>13.45919168454928</v>
       </c>
       <c r="C12">
-        <v>7.657376140460211</v>
+        <v>8.575582039933909</v>
       </c>
       <c r="D12">
-        <v>10.25108360761699</v>
+        <v>14.04144836140598</v>
       </c>
       <c r="E12">
-        <v>8.810425553910214</v>
+        <v>14.6512735494989</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.05597608600637</v>
+        <v>41.83792014682395</v>
       </c>
       <c r="H12">
-        <v>10.50626173082295</v>
+        <v>17.63664901499144</v>
       </c>
       <c r="I12">
-        <v>17.19874598685728</v>
+        <v>28.33276589695207</v>
       </c>
       <c r="J12">
-        <v>5.250846957788092</v>
+        <v>8.856578277641901</v>
       </c>
       <c r="K12">
-        <v>13.37847590673777</v>
+        <v>10.31327544322031</v>
       </c>
       <c r="L12">
-        <v>7.664525665064797</v>
+        <v>12.09010326323683</v>
       </c>
       <c r="M12">
-        <v>11.56532658564162</v>
+        <v>15.66482661600499</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.92756252601468</v>
+        <v>28.5750335139325</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.34687760998768</v>
+        <v>13.44551791802762</v>
       </c>
       <c r="C13">
-        <v>7.651677204858986</v>
+        <v>8.573817522605543</v>
       </c>
       <c r="D13">
-        <v>10.23847629135396</v>
+        <v>14.04071898746599</v>
       </c>
       <c r="E13">
-        <v>8.810030697767079</v>
+        <v>14.65260187275198</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.04526412651161</v>
+        <v>41.84318518857165</v>
       </c>
       <c r="H13">
-        <v>10.50997847912456</v>
+        <v>17.63917142881571</v>
       </c>
       <c r="I13">
-        <v>17.20717434405642</v>
+        <v>28.33768621772552</v>
       </c>
       <c r="J13">
-        <v>5.252006331187284</v>
+        <v>8.856958255968571</v>
       </c>
       <c r="K13">
-        <v>13.34710542888197</v>
+        <v>10.30305750145804</v>
       </c>
       <c r="L13">
-        <v>7.658787626985193</v>
+        <v>12.09019902301545</v>
       </c>
       <c r="M13">
-        <v>11.5459217883124</v>
+        <v>15.66212570384998</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.92962643407579</v>
+        <v>28.57923466683995</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.20362072873644</v>
+        <v>13.40086270389891</v>
       </c>
       <c r="C14">
-        <v>7.633075415609904</v>
+        <v>8.568058805767183</v>
       </c>
       <c r="D14">
-        <v>10.19740558728513</v>
+        <v>14.03839822783092</v>
       </c>
       <c r="E14">
-        <v>8.808847773171099</v>
+        <v>14.65697538655755</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.01116763129049</v>
+        <v>41.86059431740456</v>
       </c>
       <c r="H14">
-        <v>10.52226816496218</v>
+        <v>17.64745566341057</v>
       </c>
       <c r="I14">
-        <v>17.23499500126199</v>
+        <v>28.35384086938281</v>
       </c>
       <c r="J14">
-        <v>5.255796482121617</v>
+        <v>8.858203306081242</v>
       </c>
       <c r="K14">
-        <v>13.24431002589958</v>
+        <v>10.26968605952577</v>
       </c>
       <c r="L14">
-        <v>7.64012455809458</v>
+        <v>12.09054499766101</v>
       </c>
       <c r="M14">
-        <v>11.48250400182921</v>
+        <v>15.65335732439309</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.93675725921644</v>
+        <v>28.59305542928166</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.1152904289717</v>
+        <v>13.37346338918817</v>
       </c>
       <c r="C15">
-        <v>7.621668867637227</v>
+        <v>8.564528202282753</v>
       </c>
       <c r="D15">
-        <v>10.17228348493487</v>
+        <v>14.0370212227909</v>
       </c>
       <c r="E15">
-        <v>8.808203405966667</v>
+        <v>14.65968623726977</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.99092245166636</v>
+        <v>41.87144125586467</v>
       </c>
       <c r="H15">
-        <v>10.52992459118502</v>
+        <v>17.65257464428321</v>
       </c>
       <c r="I15">
-        <v>17.25229054699303</v>
+        <v>28.36381937381526</v>
       </c>
       <c r="J15">
-        <v>5.258125144082327</v>
+        <v>8.858970439511186</v>
       </c>
       <c r="K15">
-        <v>13.18096877328476</v>
+        <v>10.24920853409047</v>
       </c>
       <c r="L15">
-        <v>7.628731430038783</v>
+        <v>12.09078281613802</v>
       </c>
       <c r="M15">
-        <v>11.4435565038998</v>
+        <v>15.64801719981886</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.94143018218064</v>
+        <v>28.60161316347878</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.60016207709147</v>
+        <v>13.21577512324567</v>
       </c>
       <c r="C16">
-        <v>7.556117653346159</v>
+        <v>8.54424785377487</v>
       </c>
       <c r="D16">
-        <v>10.02888300435467</v>
+        <v>14.02981448231413</v>
       </c>
       <c r="E16">
-        <v>8.805727327395227</v>
+        <v>14.67571107944206</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>28.88456047896162</v>
+        <v>41.9364081345902</v>
       </c>
       <c r="H16">
-        <v>10.57573615973976</v>
+        <v>17.68259406867665</v>
       </c>
       <c r="I16">
-        <v>17.35522451228818</v>
+        <v>28.4222793269492</v>
       </c>
       <c r="J16">
-        <v>5.271579552803933</v>
+        <v>8.863435722627349</v>
       </c>
       <c r="K16">
-        <v>12.81222264227342</v>
+        <v>10.1313301601846</v>
       </c>
       <c r="L16">
-        <v>7.564040227377805</v>
+        <v>12.0925433420913</v>
       </c>
       <c r="M16">
-        <v>11.21884363347763</v>
+        <v>15.61789128638146</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.97279242973583</v>
+        <v>28.65206569313817</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.27613185665352</v>
+        <v>13.11848368138755</v>
       </c>
       <c r="C17">
-        <v>7.515745187916653</v>
+        <v>8.53176543021568</v>
       </c>
       <c r="D17">
-        <v>9.941447447143675</v>
+        <v>14.02600594298672</v>
       </c>
       <c r="E17">
-        <v>8.805279953864483</v>
+        <v>14.68597950364273</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.82775729409106</v>
+        <v>41.97876532863286</v>
       </c>
       <c r="H17">
-        <v>10.60552909734237</v>
+        <v>17.70162121642235</v>
       </c>
       <c r="I17">
-        <v>17.42169321093991</v>
+        <v>28.45928249269629</v>
       </c>
       <c r="J17">
-        <v>5.279932642584837</v>
+        <v>8.866236857756483</v>
       </c>
       <c r="K17">
-        <v>12.58087004649975</v>
+        <v>10.05857625306896</v>
       </c>
       <c r="L17">
-        <v>7.524896221066886</v>
+        <v>12.09397899951565</v>
       </c>
       <c r="M17">
-        <v>11.07968649082582</v>
+        <v>15.59983996326593</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.99602270450441</v>
+        <v>28.68427595812891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.08679855059524</v>
+        <v>13.06233910666639</v>
       </c>
       <c r="C18">
-        <v>7.492468103293491</v>
+        <v>8.524571421653578</v>
       </c>
       <c r="D18">
-        <v>9.891366988366338</v>
+        <v>14.02404122549905</v>
       </c>
       <c r="E18">
-        <v>8.80541096008281</v>
+        <v>14.69204664903489</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.79812172113667</v>
+        <v>42.00404635167047</v>
       </c>
       <c r="H18">
-        <v>10.62327113495676</v>
+        <v>17.7127898671071</v>
       </c>
       <c r="I18">
-        <v>17.46111164419722</v>
+        <v>28.48098472962984</v>
       </c>
       <c r="J18">
-        <v>5.284774091386437</v>
+        <v>8.867870767454287</v>
       </c>
       <c r="K18">
-        <v>12.44591596974804</v>
+        <v>10.0165822112281</v>
       </c>
       <c r="L18">
-        <v>7.502584022298434</v>
+        <v>12.09493574435836</v>
       </c>
       <c r="M18">
-        <v>10.99919046691018</v>
+        <v>15.58961729610327</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.01081168240721</v>
+        <v>28.70326509309015</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.02218390398247</v>
+        <v>13.04329953711177</v>
       </c>
       <c r="C19">
-        <v>7.484577523730825</v>
+        <v>8.522133233952482</v>
       </c>
       <c r="D19">
-        <v>9.87444797330601</v>
+        <v>14.02341486401545</v>
       </c>
       <c r="E19">
-        <v>8.805521492412231</v>
+        <v>14.69412855100166</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.78860255128729</v>
+        <v>42.01276366791601</v>
       </c>
       <c r="H19">
-        <v>10.62938098450184</v>
+        <v>17.71660999119186</v>
       </c>
       <c r="I19">
-        <v>17.47465890008406</v>
+        <v>28.48840470604344</v>
       </c>
       <c r="J19">
-        <v>5.286419719579495</v>
+        <v>8.86842789678902</v>
       </c>
       <c r="K19">
-        <v>12.39989918696386</v>
+        <v>10.00233965097647</v>
       </c>
       <c r="L19">
-        <v>7.495064562939686</v>
+        <v>12.09528220761955</v>
       </c>
       <c r="M19">
-        <v>10.97185971107158</v>
+        <v>15.58618373710346</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.01606050466726</v>
+        <v>28.70977393415939</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.31093143101478</v>
+        <v>13.12886010847128</v>
       </c>
       <c r="C20">
-        <v>7.520048749819234</v>
+        <v>8.533095715544055</v>
       </c>
       <c r="D20">
-        <v>9.950733661809982</v>
+        <v>14.02638800972222</v>
       </c>
       <c r="E20">
-        <v>8.805287264008841</v>
+        <v>14.68486975116337</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.8334883166448</v>
+        <v>41.97416126554135</v>
       </c>
       <c r="H20">
-        <v>10.60229454968128</v>
+        <v>17.69957248725919</v>
       </c>
       <c r="I20">
-        <v>17.41449387482698</v>
+        <v>28.45530008029992</v>
       </c>
       <c r="J20">
-        <v>5.279039626563123</v>
+        <v>8.865936316550938</v>
       </c>
       <c r="K20">
-        <v>12.60569320439191</v>
+        <v>10.06633664880218</v>
       </c>
       <c r="L20">
-        <v>7.529042292669638</v>
+        <v>12.09381262072708</v>
       </c>
       <c r="M20">
-        <v>11.09454777565355</v>
+        <v>15.60174504446064</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.99340118620961</v>
+        <v>28.68079923557246</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.24581981517838</v>
+        <v>13.4139888558492</v>
       </c>
       <c r="C21">
-        <v>7.638541811893922</v>
+        <v>8.569750955825629</v>
       </c>
       <c r="D21">
-        <v>10.20946184698227</v>
+        <v>14.03907061623624</v>
       </c>
       <c r="E21">
-        <v>8.809178480646599</v>
+        <v>14.6556841226986</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.02104887899188</v>
+        <v>41.85544261907636</v>
       </c>
       <c r="H21">
-        <v>10.51863149072477</v>
+        <v>17.64501307897036</v>
       </c>
       <c r="I21">
-        <v>17.22677014413203</v>
+        <v>28.34907849454495</v>
       </c>
       <c r="J21">
-        <v>5.254681749277164</v>
+        <v>8.857836666264072</v>
       </c>
       <c r="K21">
-        <v>13.27458190774523</v>
+        <v>10.2794957504941</v>
       </c>
       <c r="L21">
-        <v>7.645598339893031</v>
+        <v>12.09043798093978</v>
       </c>
       <c r="M21">
-        <v>11.50115276581973</v>
+        <v>15.65592641075109</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.93459896027882</v>
+        <v>28.58897673826822</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.83076698913006</v>
+        <v>13.59829647922916</v>
       </c>
       <c r="C22">
-        <v>7.715434792535968</v>
+        <v>8.593564766936842</v>
       </c>
       <c r="D22">
-        <v>10.3801524018756</v>
+        <v>14.04935440004626</v>
       </c>
       <c r="E22">
-        <v>8.81529673577235</v>
+        <v>14.63803995544735</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.17209005806653</v>
+        <v>41.7860559113091</v>
       </c>
       <c r="H22">
-        <v>10.46967006275036</v>
+        <v>17.61135401999466</v>
       </c>
       <c r="I22">
-        <v>17.11538520399202</v>
+        <v>28.28338572395482</v>
       </c>
       <c r="J22">
-        <v>5.239080935590958</v>
+        <v>8.852744809453943</v>
       </c>
       <c r="K22">
-        <v>13.69491063523854</v>
+        <v>10.41720753691316</v>
       </c>
       <c r="L22">
-        <v>7.723508175403712</v>
+        <v>12.08939245269466</v>
       </c>
       <c r="M22">
-        <v>11.76237349415847</v>
+        <v>15.6927192093735</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.90971760033712</v>
+        <v>28.53308805504378</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.52093913068826</v>
+        <v>13.50013315429366</v>
       </c>
       <c r="C23">
-        <v>7.674448136352393</v>
+        <v>8.580868599128964</v>
       </c>
       <c r="D23">
-        <v>10.28891836872704</v>
+        <v>14.04368404095187</v>
       </c>
       <c r="E23">
-        <v>8.811698476199933</v>
+        <v>14.64732627718984</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.08880525244968</v>
+        <v>41.82233716466351</v>
       </c>
       <c r="H23">
-        <v>10.49526238780109</v>
+        <v>17.62913573928013</v>
       </c>
       <c r="I23">
-        <v>17.17376225237676</v>
+        <v>28.31810606016844</v>
       </c>
       <c r="J23">
-        <v>5.247378777275349</v>
+        <v>8.85544402070097</v>
       </c>
       <c r="K23">
-        <v>13.47211337133797</v>
+        <v>10.34386785595973</v>
       </c>
       <c r="L23">
-        <v>7.681770899278536</v>
+        <v>12.08984465518963</v>
       </c>
       <c r="M23">
-        <v>11.62338883021021</v>
+        <v>15.67295783159726</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.92171621134678</v>
+        <v>28.56253954154153</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.29520802816729</v>
+        <v>13.12416957678838</v>
       </c>
       <c r="C24">
-        <v>7.51810331576748</v>
+        <v>8.532494348521922</v>
       </c>
       <c r="D24">
-        <v>9.946534777313646</v>
+        <v>14.02621457676425</v>
       </c>
       <c r="E24">
-        <v>8.805282751208511</v>
+        <v>14.68537096034323</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.83088792657825</v>
+        <v>41.97623986802178</v>
       </c>
       <c r="H24">
-        <v>10.60375498068433</v>
+        <v>17.70049800221063</v>
       </c>
       <c r="I24">
-        <v>17.41774495021738</v>
+        <v>28.45709919378112</v>
       </c>
       <c r="J24">
-        <v>5.279443237057036</v>
+        <v>8.866072118019339</v>
       </c>
       <c r="K24">
-        <v>12.59447671673406</v>
+        <v>10.06282869039702</v>
       </c>
       <c r="L24">
-        <v>7.527167254237023</v>
+        <v>12.09388743131794</v>
       </c>
       <c r="M24">
-        <v>11.08783051825398</v>
+        <v>15.60088327311157</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.99458191852746</v>
+        <v>28.68236959465605</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.85973333031274</v>
+        <v>12.7118123722676</v>
       </c>
       <c r="C25">
-        <v>7.347358812797385</v>
+        <v>8.479770401052173</v>
       </c>
       <c r="D25">
-        <v>9.585432857474647</v>
+        <v>14.01601298065036</v>
       </c>
       <c r="E25">
-        <v>8.813140547428736</v>
+        <v>14.73256644649621</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>28.66783724201089</v>
+        <v>42.17733890808918</v>
       </c>
       <c r="H25">
-        <v>10.74378553826086</v>
+        <v>17.78606771216133</v>
       </c>
       <c r="I25">
-        <v>17.72595741236676</v>
+        <v>28.62304644012665</v>
       </c>
       <c r="J25">
-        <v>5.315449415650078</v>
+        <v>8.878407474070706</v>
       </c>
       <c r="K25">
-        <v>11.57578171656436</v>
+        <v>9.754212631973971</v>
       </c>
       <c r="L25">
-        <v>7.368179109760805</v>
+        <v>12.10325959320656</v>
       </c>
       <c r="M25">
-        <v>10.49304527665338</v>
+        <v>15.52927789563301</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.12729720920402</v>
+        <v>28.82931177496449</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.40453383752919</v>
+        <v>12.70359530568613</v>
       </c>
       <c r="C2">
-        <v>8.440546529063088</v>
+        <v>7.220118340602831</v>
       </c>
       <c r="D2">
-        <v>14.0160008166415</v>
+        <v>9.328127168419581</v>
       </c>
       <c r="E2">
-        <v>14.7726355906313</v>
+        <v>8.831005335518441</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>42.35544593076597</v>
+        <v>28.63860250761125</v>
       </c>
       <c r="H2">
-        <v>17.85648791140229</v>
+        <v>10.86512095150556</v>
       </c>
       <c r="I2">
-        <v>28.75904256296874</v>
+        <v>17.98815890355678</v>
       </c>
       <c r="J2">
-        <v>8.88824659559746</v>
+        <v>5.343241779569941</v>
       </c>
       <c r="K2">
-        <v>9.523861557817211</v>
+        <v>10.76430347947535</v>
       </c>
       <c r="L2">
-        <v>12.11450060032691</v>
+        <v>7.258130266813829</v>
       </c>
       <c r="M2">
-        <v>15.48203246089518</v>
+        <v>10.04329833283144</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.95271429876113</v>
+        <v>18.26726268976029</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.19519397302061</v>
+        <v>11.85734083701617</v>
       </c>
       <c r="C3">
-        <v>8.413745393550723</v>
+        <v>7.133099294316517</v>
       </c>
       <c r="D3">
-        <v>14.02069832662878</v>
+        <v>9.159882778994596</v>
       </c>
       <c r="E3">
-        <v>14.80312046728939</v>
+        <v>8.850333493185515</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>42.49481110824836</v>
+        <v>28.67111704714425</v>
       </c>
       <c r="H3">
-        <v>17.90885063336371</v>
+        <v>10.95801723533505</v>
       </c>
       <c r="I3">
-        <v>28.85983927469492</v>
+        <v>18.18630135452377</v>
       </c>
       <c r="J3">
-        <v>8.895390369357141</v>
+        <v>5.362904913902537</v>
       </c>
       <c r="K3">
-        <v>9.36666126740276</v>
+        <v>10.17663254604528</v>
       </c>
       <c r="L3">
-        <v>12.12484038866509</v>
+        <v>7.188076103788124</v>
       </c>
       <c r="M3">
-        <v>15.45352418494169</v>
+        <v>9.732892201505681</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.0458321197443</v>
+        <v>18.38642186660459</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.06653563793971</v>
+        <v>11.3065257008851</v>
       </c>
       <c r="C4">
-        <v>8.39719269210102</v>
+        <v>7.079340298056349</v>
       </c>
       <c r="D4">
-        <v>14.0259115380325</v>
+        <v>9.059867145195085</v>
       </c>
       <c r="E4">
-        <v>14.82348445052418</v>
+        <v>8.8656596958447</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.58955865326764</v>
+        <v>28.7154159685749</v>
       </c>
       <c r="H4">
-        <v>17.94329354353553</v>
+        <v>11.02010164539016</v>
       </c>
       <c r="I4">
-        <v>28.92599147449038</v>
+        <v>18.31758026774133</v>
       </c>
       <c r="J4">
-        <v>8.900012537860388</v>
+        <v>5.375395642052819</v>
       </c>
       <c r="K4">
-        <v>9.269902490460321</v>
+        <v>9.797513878760329</v>
       </c>
       <c r="L4">
-        <v>12.13253603460777</v>
+        <v>7.147340790138212</v>
       </c>
       <c r="M4">
-        <v>15.43778123833013</v>
+        <v>9.540211054593064</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.10768577326957</v>
+        <v>18.47092518702926</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.01414013588727</v>
+        <v>11.07417776892475</v>
       </c>
       <c r="C5">
-        <v>8.390424796961643</v>
+        <v>7.057359929964361</v>
       </c>
       <c r="D5">
-        <v>14.0286227085006</v>
+        <v>9.019975256084788</v>
       </c>
       <c r="E5">
-        <v>14.83219742720272</v>
+        <v>8.872759812550804</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.63047237691628</v>
+        <v>28.73936583725059</v>
       </c>
       <c r="H5">
-        <v>17.95790621432549</v>
+        <v>11.04664007944545</v>
       </c>
       <c r="I5">
-        <v>28.954021604072</v>
+        <v>18.37343128899313</v>
       </c>
       <c r="J5">
-        <v>8.901955587558856</v>
+        <v>5.380591956231394</v>
       </c>
       <c r="K5">
-        <v>9.23045947165679</v>
+        <v>9.63848747150589</v>
       </c>
       <c r="L5">
-        <v>12.13601147115306</v>
+        <v>7.131320017475723</v>
       </c>
       <c r="M5">
-        <v>15.43181320103583</v>
+        <v>9.461277496591595</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.13406806152121</v>
+        <v>18.50811931811853</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.00544385223971</v>
+        <v>11.03511917080071</v>
       </c>
       <c r="C6">
-        <v>8.389299683735448</v>
+        <v>7.05370597346737</v>
       </c>
       <c r="D6">
-        <v>14.02910836298021</v>
+        <v>9.013404592817881</v>
       </c>
       <c r="E6">
-        <v>14.83366926046104</v>
+        <v>8.873989954444689</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>42.63740505739737</v>
+        <v>28.74369239755455</v>
       </c>
       <c r="H6">
-        <v>17.96036749760528</v>
+        <v>11.05112071972193</v>
       </c>
       <c r="I6">
-        <v>28.9587407874501</v>
+        <v>18.38284565941375</v>
       </c>
       <c r="J6">
-        <v>8.902281826810642</v>
+        <v>5.381461253221008</v>
       </c>
       <c r="K6">
-        <v>9.223910575958865</v>
+        <v>9.611809770823962</v>
       </c>
       <c r="L6">
-        <v>12.13660908294047</v>
+        <v>7.128694927097512</v>
       </c>
       <c r="M6">
-        <v>15.43084935661922</v>
+        <v>9.448149010206366</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.13851986942223</v>
+        <v>18.51445931991988</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.06582879085362</v>
+        <v>11.30342415636717</v>
       </c>
       <c r="C7">
-        <v>8.397101506804397</v>
+        <v>7.079044146448696</v>
       </c>
       <c r="D7">
-        <v>14.025945724782</v>
+        <v>9.059325595932034</v>
       </c>
       <c r="E7">
-        <v>14.82360027779582</v>
+        <v>8.865752010309855</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.5901011097087</v>
+        <v>28.7157153790028</v>
       </c>
       <c r="H7">
-        <v>17.9434882785027</v>
+        <v>11.02045457587741</v>
       </c>
       <c r="I7">
-        <v>28.9263651548753</v>
+        <v>18.3183240461641</v>
       </c>
       <c r="J7">
-        <v>8.900038501456573</v>
+        <v>5.3754652895483</v>
       </c>
       <c r="K7">
-        <v>9.269370538825882</v>
+        <v>9.795387445381227</v>
       </c>
       <c r="L7">
-        <v>12.13258153046434</v>
+        <v>7.147122375634593</v>
       </c>
       <c r="M7">
-        <v>15.4376989343203</v>
+        <v>9.539148054352681</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.10803681092997</v>
+        <v>18.47141575195623</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.33241745701951</v>
+        <v>12.41826151447118</v>
       </c>
       <c r="C8">
-        <v>8.431326635872583</v>
+        <v>7.190188099287193</v>
       </c>
       <c r="D8">
-        <v>14.01713787772174</v>
+        <v>9.269458023329559</v>
       </c>
       <c r="E8">
-        <v>14.78280545216714</v>
+        <v>8.836942703868383</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>42.40159191335152</v>
+        <v>28.64463016176877</v>
       </c>
       <c r="H8">
-        <v>17.87406721698645</v>
+        <v>10.89608559944043</v>
       </c>
       <c r="I8">
-        <v>28.79291298648094</v>
+        <v>18.05444164470478</v>
       </c>
       <c r="J8">
-        <v>8.890660917414998</v>
+        <v>5.349935751234321</v>
       </c>
       <c r="K8">
-        <v>9.469735856151932</v>
+        <v>10.56550418643995</v>
       </c>
       <c r="L8">
-        <v>12.11778662033461</v>
+        <v>7.233506826017996</v>
       </c>
       <c r="M8">
-        <v>15.4718400074741</v>
+        <v>9.936768483211186</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.98385013515412</v>
+        <v>18.30593835644704</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.85143735936938</v>
+        <v>14.35857132161301</v>
       </c>
       <c r="C9">
-        <v>8.497597601187881</v>
+        <v>7.405131214808453</v>
       </c>
       <c r="D9">
-        <v>14.01828861053364</v>
+        <v>9.705842821445627</v>
       </c>
       <c r="E9">
-        <v>14.71584379888772</v>
+        <v>8.808575283197236</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>42.1049223231423</v>
+        <v>28.70809020098436</v>
       </c>
       <c r="H9">
-        <v>17.75609311098123</v>
+        <v>10.69368475985925</v>
       </c>
       <c r="I9">
-        <v>28.56500372078056</v>
+        <v>17.61643747404797</v>
       </c>
       <c r="J9">
-        <v>8.87413524145852</v>
+        <v>5.303125589517556</v>
       </c>
       <c r="K9">
-        <v>9.858764941896842</v>
+        <v>11.92852403627476</v>
       </c>
       <c r="L9">
-        <v>12.09943030964053</v>
+        <v>7.420666465108883</v>
       </c>
       <c r="M9">
-        <v>15.55256038142518</v>
+        <v>10.69544634534733</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.77745128040015</v>
+        <v>18.07574818810562</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.22685030010545</v>
+        <v>15.63673613968359</v>
       </c>
       <c r="C10">
-        <v>8.545670180234589</v>
+        <v>7.560716673442647</v>
       </c>
       <c r="D10">
-        <v>14.03027961435449</v>
+        <v>10.03888752447549</v>
       </c>
       <c r="E10">
-        <v>14.67456118750162</v>
+        <v>8.805831392196527</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>41.93169940510114</v>
+        <v>28.89145847133122</v>
       </c>
       <c r="H10">
-        <v>17.68045338254636</v>
+        <v>10.57241974287602</v>
       </c>
       <c r="I10">
-        <v>28.41811377652819</v>
+        <v>17.3478032604552</v>
       </c>
       <c r="J10">
-        <v>8.863119175582151</v>
+        <v>5.270631381029514</v>
       </c>
       <c r="K10">
-        <v>10.13961085565686</v>
+        <v>12.83836580539976</v>
       </c>
       <c r="L10">
-        <v>12.09239725203823</v>
+        <v>7.568534022462845</v>
       </c>
       <c r="M10">
-        <v>15.61997260332394</v>
+        <v>11.23465891909806</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.6484529772109</v>
+        <v>17.97033793858158</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.39562585210626</v>
+        <v>16.18676377979804</v>
       </c>
       <c r="C11">
-        <v>8.567383836233315</v>
+        <v>7.630894866499145</v>
       </c>
       <c r="D11">
-        <v>14.0381322596869</v>
+        <v>10.19259937885211</v>
       </c>
       <c r="E11">
-        <v>14.65749188895356</v>
+        <v>8.808719803662205</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>41.862657711405</v>
+        <v>29.00725830385813</v>
       </c>
       <c r="H11">
-        <v>17.64843192076152</v>
+        <v>10.52372470820255</v>
       </c>
       <c r="I11">
-        <v>28.35574412302843</v>
+        <v>17.23828740732092</v>
       </c>
       <c r="J11">
-        <v>8.858349738214022</v>
+        <v>5.256241372324262</v>
       </c>
       <c r="K11">
-        <v>10.26577227310452</v>
+        <v>13.23221954702659</v>
       </c>
       <c r="L11">
-        <v>12.09058893905736</v>
+        <v>7.637943551099672</v>
       </c>
       <c r="M11">
-        <v>15.6523343006414</v>
+        <v>11.47506207627443</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.59468646637175</v>
+        <v>17.9376328464979</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.45919168454928</v>
+        <v>16.39057338212914</v>
       </c>
       <c r="C12">
-        <v>8.575582039933909</v>
+        <v>7.657376140460097</v>
       </c>
       <c r="D12">
-        <v>14.04144836140598</v>
+        <v>10.25108360761691</v>
       </c>
       <c r="E12">
-        <v>14.6512735494989</v>
+        <v>8.810425553910044</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>41.83792014682395</v>
+        <v>29.05597608600647</v>
       </c>
       <c r="H12">
-        <v>17.63664901499144</v>
+        <v>10.5062617308229</v>
       </c>
       <c r="I12">
-        <v>28.33276589695207</v>
+        <v>17.19874598685724</v>
       </c>
       <c r="J12">
-        <v>8.856578277641901</v>
+        <v>5.250846957788023</v>
       </c>
       <c r="K12">
-        <v>10.31327544322031</v>
+        <v>13.37847590673774</v>
       </c>
       <c r="L12">
-        <v>12.09010326323683</v>
+        <v>7.66452566506477</v>
       </c>
       <c r="M12">
-        <v>15.66482661600499</v>
+        <v>11.56532658564159</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.5750335139325</v>
+        <v>17.92756252601467</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.44551791802762</v>
+        <v>16.3468776099877</v>
       </c>
       <c r="C13">
-        <v>8.573817522605543</v>
+        <v>7.651677204858872</v>
       </c>
       <c r="D13">
-        <v>14.04071898746599</v>
+        <v>10.23847629135387</v>
       </c>
       <c r="E13">
-        <v>14.65260187275198</v>
+        <v>8.810030697767033</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>41.84318518857165</v>
+        <v>29.04526412651154</v>
       </c>
       <c r="H13">
-        <v>17.63917142881571</v>
+        <v>10.50997847912462</v>
       </c>
       <c r="I13">
-        <v>28.33768621772552</v>
+        <v>17.20717434405639</v>
       </c>
       <c r="J13">
-        <v>8.856958255968571</v>
+        <v>5.252006331187316</v>
       </c>
       <c r="K13">
-        <v>10.30305750145804</v>
+        <v>13.34710542888198</v>
       </c>
       <c r="L13">
-        <v>12.09019902301545</v>
+        <v>7.65878762698516</v>
       </c>
       <c r="M13">
-        <v>15.66212570384998</v>
+        <v>11.5459217883124</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.57923466683995</v>
+        <v>17.9296264340758</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.40086270389891</v>
+        <v>16.20362072873647</v>
       </c>
       <c r="C14">
-        <v>8.568058805767183</v>
+        <v>7.633075415609893</v>
       </c>
       <c r="D14">
-        <v>14.03839822783092</v>
+        <v>10.19740558728508</v>
       </c>
       <c r="E14">
-        <v>14.65697538655755</v>
+        <v>8.808847773171086</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>41.86059431740456</v>
+        <v>29.01116763129042</v>
       </c>
       <c r="H14">
-        <v>17.64745566341057</v>
+        <v>10.52226816496221</v>
       </c>
       <c r="I14">
-        <v>28.35384086938281</v>
+        <v>17.23499500126197</v>
       </c>
       <c r="J14">
-        <v>8.858203306081242</v>
+        <v>5.255796482121652</v>
       </c>
       <c r="K14">
-        <v>10.26968605952577</v>
+        <v>13.24431002589956</v>
       </c>
       <c r="L14">
-        <v>12.09054499766101</v>
+        <v>7.640124558094604</v>
       </c>
       <c r="M14">
-        <v>15.65335732439309</v>
+        <v>11.4825040018292</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.59305542928166</v>
+        <v>17.93675725921643</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.37346338918817</v>
+        <v>16.1152904289717</v>
       </c>
       <c r="C15">
-        <v>8.564528202282753</v>
+        <v>7.621668867637227</v>
       </c>
       <c r="D15">
-        <v>14.0370212227909</v>
+        <v>10.17228348493475</v>
       </c>
       <c r="E15">
-        <v>14.65968623726977</v>
+        <v>8.808203405966504</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>41.87144125586467</v>
+        <v>28.99092245166641</v>
       </c>
       <c r="H15">
-        <v>17.65257464428321</v>
+        <v>10.52992459118504</v>
       </c>
       <c r="I15">
-        <v>28.36381937381526</v>
+        <v>17.25229054699306</v>
       </c>
       <c r="J15">
-        <v>8.858970439511186</v>
+        <v>5.258125144082261</v>
       </c>
       <c r="K15">
-        <v>10.24920853409047</v>
+        <v>13.18096877328477</v>
       </c>
       <c r="L15">
-        <v>12.09078281613802</v>
+        <v>7.628731430038692</v>
       </c>
       <c r="M15">
-        <v>15.64801719981886</v>
+        <v>11.44355650389976</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.60161316347878</v>
+        <v>17.94143018218067</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.21577512324567</v>
+        <v>15.6001620770915</v>
       </c>
       <c r="C16">
-        <v>8.54424785377487</v>
+        <v>7.5561176533459</v>
       </c>
       <c r="D16">
-        <v>14.02981448231413</v>
+        <v>10.02888300435466</v>
       </c>
       <c r="E16">
-        <v>14.67571107944206</v>
+        <v>8.80572732739518</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41.9364081345902</v>
+        <v>28.88456047896175</v>
       </c>
       <c r="H16">
-        <v>17.68259406867665</v>
+        <v>10.57573615973988</v>
       </c>
       <c r="I16">
-        <v>28.4222793269492</v>
+        <v>17.3552245122882</v>
       </c>
       <c r="J16">
-        <v>8.863435722627349</v>
+        <v>5.271579552803864</v>
       </c>
       <c r="K16">
-        <v>10.1313301601846</v>
+        <v>12.8122226422734</v>
       </c>
       <c r="L16">
-        <v>12.0925433420913</v>
+        <v>7.564040227377844</v>
       </c>
       <c r="M16">
-        <v>15.61789128638146</v>
+        <v>11.21884363347765</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.65206569313817</v>
+        <v>17.97279242973593</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.11848368138755</v>
+        <v>15.27613185665352</v>
       </c>
       <c r="C17">
-        <v>8.53176543021568</v>
+        <v>7.515745187916405</v>
       </c>
       <c r="D17">
-        <v>14.02600594298672</v>
+        <v>9.941447447143714</v>
       </c>
       <c r="E17">
-        <v>14.68597950364273</v>
+        <v>8.805279953864313</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.97876532863286</v>
+        <v>28.82775729409117</v>
       </c>
       <c r="H17">
-        <v>17.70162121642235</v>
+        <v>10.60552909734237</v>
       </c>
       <c r="I17">
-        <v>28.45928249269629</v>
+        <v>17.42169321093991</v>
       </c>
       <c r="J17">
-        <v>8.866236857756483</v>
+        <v>5.279932642584736</v>
       </c>
       <c r="K17">
-        <v>10.05857625306896</v>
+        <v>12.58087004649969</v>
       </c>
       <c r="L17">
-        <v>12.09397899951565</v>
+        <v>7.524896221066871</v>
       </c>
       <c r="M17">
-        <v>15.59983996326593</v>
+        <v>11.07968649082581</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.68427595812891</v>
+        <v>17.99602270450452</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.06233910666639</v>
+        <v>15.08679855059529</v>
       </c>
       <c r="C18">
-        <v>8.524571421653578</v>
+        <v>7.492468103293115</v>
       </c>
       <c r="D18">
-        <v>14.02404122549905</v>
+        <v>9.89136698836624</v>
       </c>
       <c r="E18">
-        <v>14.69204664903489</v>
+        <v>8.805410960082597</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.00404635167047</v>
+        <v>28.79812172113691</v>
       </c>
       <c r="H18">
-        <v>17.7127898671071</v>
+        <v>10.62327113495677</v>
       </c>
       <c r="I18">
-        <v>28.48098472962984</v>
+        <v>17.46111164419719</v>
       </c>
       <c r="J18">
-        <v>8.867870767454287</v>
+        <v>5.284774091386401</v>
       </c>
       <c r="K18">
-        <v>10.0165822112281</v>
+        <v>12.44591596974799</v>
       </c>
       <c r="L18">
-        <v>12.09493574435836</v>
+        <v>7.502584022298409</v>
       </c>
       <c r="M18">
-        <v>15.58961729610327</v>
+        <v>10.99919046691016</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.70326509309015</v>
+        <v>18.01081168240731</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.04329953711177</v>
+        <v>15.0221839039825</v>
       </c>
       <c r="C19">
-        <v>8.522133233952482</v>
+        <v>7.484577523730467</v>
       </c>
       <c r="D19">
-        <v>14.02341486401545</v>
+        <v>9.874447973305976</v>
       </c>
       <c r="E19">
-        <v>14.69412855100166</v>
+        <v>8.805521492412227</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.01276366791601</v>
+        <v>28.78860255128707</v>
       </c>
       <c r="H19">
-        <v>17.71660999119186</v>
+        <v>10.62938098450185</v>
       </c>
       <c r="I19">
-        <v>28.48840470604344</v>
+        <v>17.47465890008399</v>
       </c>
       <c r="J19">
-        <v>8.86842789678902</v>
+        <v>5.286419719579461</v>
       </c>
       <c r="K19">
-        <v>10.00233965097647</v>
+        <v>12.39989918696387</v>
       </c>
       <c r="L19">
-        <v>12.09528220761955</v>
+        <v>7.495064562939707</v>
       </c>
       <c r="M19">
-        <v>15.58618373710346</v>
+        <v>10.97185971107154</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.70977393415939</v>
+        <v>18.01606050466718</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.12886010847128</v>
+        <v>15.31093143101479</v>
       </c>
       <c r="C20">
-        <v>8.533095715544055</v>
+        <v>7.520048749819344</v>
       </c>
       <c r="D20">
-        <v>14.02638800972222</v>
+        <v>9.950733661809982</v>
       </c>
       <c r="E20">
-        <v>14.68486975116337</v>
+        <v>8.80528726400884</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.97416126554135</v>
+        <v>28.83348831664489</v>
       </c>
       <c r="H20">
-        <v>17.69957248725919</v>
+        <v>10.60229454968134</v>
       </c>
       <c r="I20">
-        <v>28.45530008029992</v>
+        <v>17.41449387482707</v>
       </c>
       <c r="J20">
-        <v>8.865936316550938</v>
+        <v>5.27903962656309</v>
       </c>
       <c r="K20">
-        <v>10.06633664880218</v>
+        <v>12.60569320439192</v>
       </c>
       <c r="L20">
-        <v>12.09381262072708</v>
+        <v>7.529042292669581</v>
       </c>
       <c r="M20">
-        <v>15.60174504446064</v>
+        <v>11.09454777565355</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.68079923557246</v>
+        <v>17.99340118620963</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.4139888558492</v>
+        <v>16.24581981517838</v>
       </c>
       <c r="C21">
-        <v>8.569750955825629</v>
+        <v>7.638541811893659</v>
       </c>
       <c r="D21">
-        <v>14.03907061623624</v>
+        <v>10.20946184698226</v>
       </c>
       <c r="E21">
-        <v>14.6556841226986</v>
+        <v>8.809178480646542</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>41.85544261907636</v>
+        <v>29.02104887899214</v>
       </c>
       <c r="H21">
-        <v>17.64501307897036</v>
+        <v>10.51863149072478</v>
       </c>
       <c r="I21">
-        <v>28.34907849454495</v>
+        <v>17.22677014413213</v>
       </c>
       <c r="J21">
-        <v>8.857836666264072</v>
+        <v>5.254681749277097</v>
       </c>
       <c r="K21">
-        <v>10.2794957504941</v>
+        <v>13.2745819077452</v>
       </c>
       <c r="L21">
-        <v>12.09043798093978</v>
+        <v>7.645598339893002</v>
       </c>
       <c r="M21">
-        <v>15.65592641075109</v>
+        <v>11.50115276581973</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.58897673826822</v>
+        <v>17.93459896027895</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.59829647922916</v>
+        <v>16.83076698912995</v>
       </c>
       <c r="C22">
-        <v>8.593564766936842</v>
+        <v>7.715434792536212</v>
       </c>
       <c r="D22">
-        <v>14.04935440004626</v>
+        <v>10.38015240187546</v>
       </c>
       <c r="E22">
-        <v>14.63803995544735</v>
+        <v>8.815296735772186</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>41.7860559113091</v>
+        <v>29.17209005806675</v>
       </c>
       <c r="H22">
-        <v>17.61135401999466</v>
+        <v>10.46967006275041</v>
       </c>
       <c r="I22">
-        <v>28.28338572395482</v>
+        <v>17.11538520399217</v>
       </c>
       <c r="J22">
-        <v>8.852744809453943</v>
+        <v>5.239080935590991</v>
       </c>
       <c r="K22">
-        <v>10.41720753691316</v>
+        <v>13.69491063523844</v>
       </c>
       <c r="L22">
-        <v>12.08939245269466</v>
+        <v>7.723508175403556</v>
       </c>
       <c r="M22">
-        <v>15.6927192093735</v>
+        <v>11.76237349415845</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.53308805504378</v>
+        <v>17.90971760033722</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.50013315429366</v>
+        <v>16.52093913068824</v>
       </c>
       <c r="C23">
-        <v>8.580868599128964</v>
+        <v>7.674448136352631</v>
       </c>
       <c r="D23">
-        <v>14.04368404095187</v>
+        <v>10.28891836872706</v>
       </c>
       <c r="E23">
-        <v>14.64732627718984</v>
+        <v>8.811698476199977</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>41.82233716466351</v>
+        <v>29.08880525244961</v>
       </c>
       <c r="H23">
-        <v>17.62913573928013</v>
+        <v>10.49526238780116</v>
       </c>
       <c r="I23">
-        <v>28.31810606016844</v>
+        <v>17.17376225237681</v>
       </c>
       <c r="J23">
-        <v>8.85544402070097</v>
+        <v>5.247378777275349</v>
       </c>
       <c r="K23">
-        <v>10.34386785595973</v>
+        <v>13.472113371338</v>
       </c>
       <c r="L23">
-        <v>12.08984465518963</v>
+        <v>7.681770899278536</v>
       </c>
       <c r="M23">
-        <v>15.67295783159726</v>
+        <v>11.62338883021018</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.56253954154153</v>
+        <v>17.92171621134678</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.12416957678838</v>
+        <v>15.29520802816731</v>
       </c>
       <c r="C24">
-        <v>8.532494348521922</v>
+        <v>7.518103315767358</v>
       </c>
       <c r="D24">
-        <v>14.02621457676425</v>
+        <v>9.946534777313666</v>
       </c>
       <c r="E24">
-        <v>14.68537096034323</v>
+        <v>8.805282751208336</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.97623986802178</v>
+        <v>28.83088792657829</v>
       </c>
       <c r="H24">
-        <v>17.70049800221063</v>
+        <v>10.60375498068429</v>
       </c>
       <c r="I24">
-        <v>28.45709919378112</v>
+        <v>17.41774495021731</v>
       </c>
       <c r="J24">
-        <v>8.866072118019339</v>
+        <v>5.279443237056901</v>
       </c>
       <c r="K24">
-        <v>10.06282869039702</v>
+        <v>12.59447671673405</v>
       </c>
       <c r="L24">
-        <v>12.09388743131794</v>
+        <v>7.527167254236941</v>
       </c>
       <c r="M24">
-        <v>15.60088327311157</v>
+        <v>11.08783051825393</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.68236959465605</v>
+        <v>17.99458191852746</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.7118123722676</v>
+        <v>13.85973333031276</v>
       </c>
       <c r="C25">
-        <v>8.479770401052173</v>
+        <v>7.347358812797383</v>
       </c>
       <c r="D25">
-        <v>14.01601298065036</v>
+        <v>9.585432857474725</v>
       </c>
       <c r="E25">
-        <v>14.73256644649621</v>
+        <v>8.813140547428731</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>42.17733890808918</v>
+        <v>28.66783724201101</v>
       </c>
       <c r="H25">
-        <v>17.78606771216133</v>
+        <v>10.74378553826102</v>
       </c>
       <c r="I25">
-        <v>28.62304644012665</v>
+        <v>17.72595741236692</v>
       </c>
       <c r="J25">
-        <v>8.878407474070706</v>
+        <v>5.315449415650011</v>
       </c>
       <c r="K25">
-        <v>9.754212631973971</v>
+        <v>11.57578171656434</v>
       </c>
       <c r="L25">
-        <v>12.10325959320656</v>
+        <v>7.368179109760773</v>
       </c>
       <c r="M25">
-        <v>15.52927789563301</v>
+        <v>10.49304527665342</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.82931177496449</v>
+        <v>18.12729720920416</v>
       </c>
     </row>
   </sheetData>
